--- a/medicine/Mort/Nécropole_nationale_du_Wettstein/Nécropole_nationale_du_Wettstein.xlsx
+++ b/medicine/Mort/Nécropole_nationale_du_Wettstein/Nécropole_nationale_du_Wettstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_Wettstein</t>
+          <t>Nécropole_nationale_du_Wettstein</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale du Wettstein est un cimetière militaire français de la Première Guerre mondiale situé sur la commune d'Orbey, dans le département français du Haut-Rhin.
-Il abrite les sépultures de 3 535 soldats français tués principalement lors des combats du Linge, dont 1 334 sont inhumés dans deux ossuaires[1].
-La plupart de ces soldats sont des chasseurs alpins, ce qui vaut à cette nécropole le surnom de « cimetière des chasseurs »[1].
+Il abrite les sépultures de 3 535 soldats français tués principalement lors des combats du Linge, dont 1 334 sont inhumés dans deux ossuaires.
+La plupart de ces soldats sont des chasseurs alpins, ce qui vaut à cette nécropole le surnom de « cimetière des chasseurs ».
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_Wettstein</t>
+          <t>Nécropole_nationale_du_Wettstein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est créé en 1915, essentiellement en tant que cimetière provisoire, pendant que se déroulent à proximité les combats du Linge[2]. Il est ensuite aménagé entre 1919 et 1926, puis de 1932 à 1935 pour rassembler les corps exhumés d'autres cimetières provisoires[1].
-En 1939, une croix commémorative portant l'inscription « PAX » (paix) est inaugurée, afin de remplacer une croix primitive en bois érigée en 1915 par le lieutenant Boisson du 11e bataillon de chasseurs alpins[2]. À sa base, une sculpture en bronze représente un chasseur agonisant, lâchant son fusil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est créé en 1915, essentiellement en tant que cimetière provisoire, pendant que se déroulent à proximité les combats du Linge. Il est ensuite aménagé entre 1919 et 1926, puis de 1932 à 1935 pour rassembler les corps exhumés d'autres cimetières provisoires.
+En 1939, une croix commémorative portant l'inscription « PAX » (paix) est inaugurée, afin de remplacer une croix primitive en bois érigée en 1915 par le lieutenant Boisson du 11e bataillon de chasseurs alpins. À sa base, une sculpture en bronze représente un chasseur agonisant, lâchant son fusil.
 			La croix du cimetière.
 			Le gisant.
-Les deux ossuaires sont créés en 1968[2].
+Les deux ossuaires sont créés en 1968.
 </t>
         </is>
       </c>
